--- a/PerformanceTests/PerformanceTable.xlsx
+++ b/PerformanceTests/PerformanceTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ISEL\PS\Force-Direct-Visualization\PerformanceTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ISEL\PS\PS_G35_2021\PerformanceTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C587A5A-C3A1-4247-8ACB-ECB3FAC3A3B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B39D268-3EF4-4793-A79C-4DC2EE11ED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{99C910E8-8B91-6F44-AA3D-70D36A7FFC60}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>D3</t>
   </si>
@@ -114,9 +114,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -190,7 +197,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="12"/>
       <color theme="8"/>
       <name val="Calibri"/>
@@ -199,7 +205,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="12"/>
       <color theme="5"/>
       <name val="Calibri"/>
@@ -208,9 +213,16 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="12"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -527,14 +539,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -542,256 +583,300 @@
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1108,27 +1193,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B64F895-0E58-AE43-B487-69A71375FE8B}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="66" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4:AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="19" max="19" width="8.5" customWidth="1"/>
+    <col min="20" max="20" width="8.125" customWidth="1"/>
+    <col min="21" max="21" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1140,13 +1228,13 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1163,7 +1251,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
@@ -1171,659 +1259,1052 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64" t="s">
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="64" t="s">
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="64" t="s">
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="65"/>
-      <c r="P4" s="66"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-    </row>
-    <row r="5" spans="1:23" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="67" t="s">
+      <c r="T4" s="104"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="43"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="44"/>
+    </row>
+    <row r="5" spans="1:30" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="71" t="s">
+      <c r="M5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="71" t="s">
+      <c r="O5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="72" t="s">
+      <c r="P5" s="47" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="T5" s="106"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="48">
         <v>42.113999999999997</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="49">
         <v>39.484999999999999</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="50">
         <v>73.094989999999996</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="48">
         <v>922.62400000000002</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="49">
         <v>992.91</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="49">
         <v>813.76400000000001</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="48">
         <v>6145.8050000000003</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="51">
         <v>6190.83</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="50">
         <v>5948.65</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22">
+      <c r="T6" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="48">
+        <v>42.113999999999997</v>
+      </c>
+      <c r="W6" s="49">
+        <v>39.484999999999999</v>
+      </c>
+      <c r="X6" s="50">
+        <v>73.094989999999996</v>
+      </c>
+      <c r="Y6" s="48">
+        <v>922.62400000000002</v>
+      </c>
+      <c r="Z6" s="49">
+        <v>992.91</v>
+      </c>
+      <c r="AA6" s="49">
+        <v>813.76400000000001</v>
+      </c>
+      <c r="AB6" s="48">
+        <v>6145.8050000000003</v>
+      </c>
+      <c r="AC6" s="51">
+        <v>6190.83</v>
+      </c>
+      <c r="AD6" s="50">
+        <v>5948.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="52">
         <v>49.524900000000002</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="53">
         <v>37.725000000000001</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="54">
         <v>54.484999999999999</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="52">
         <v>1109.75</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="53">
         <v>1139.75</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="53">
         <v>834.26400000000001</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="52">
         <v>6297.03</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="55">
         <v>6418.0649999999996</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="54">
         <v>6289.8190000000004</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22">
+      <c r="T7" s="96"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="52">
+        <v>49.524900000000002</v>
+      </c>
+      <c r="W7" s="53">
+        <v>37.725000000000001</v>
+      </c>
+      <c r="X7" s="54">
+        <v>54.484999999999999</v>
+      </c>
+      <c r="Y7" s="52">
+        <v>1109.75</v>
+      </c>
+      <c r="Z7" s="53">
+        <v>1139.75</v>
+      </c>
+      <c r="AA7" s="53">
+        <v>834.26400000000001</v>
+      </c>
+      <c r="AB7" s="52">
+        <v>6297.03</v>
+      </c>
+      <c r="AC7" s="55">
+        <v>6418.0649999999996</v>
+      </c>
+      <c r="AD7" s="54">
+        <v>6289.8190000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="52">
         <v>47.554900000000004</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="53">
         <v>46.344999999999999</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="54">
         <v>42.024999999999999</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="52">
         <v>1115.4000000000001</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="53">
         <v>1350.7850000000001</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="53">
         <v>824.67399999999998</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="52">
         <v>5800.9589999999998</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="55">
         <v>6762.7650000000003</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="54">
         <v>5831.23</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22">
+      <c r="T8" s="96"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="52">
+        <v>47.554900000000004</v>
+      </c>
+      <c r="W8" s="53">
+        <v>46.344999999999999</v>
+      </c>
+      <c r="X8" s="54">
+        <v>42.024999999999999</v>
+      </c>
+      <c r="Y8" s="52">
+        <v>1115.4000000000001</v>
+      </c>
+      <c r="Z8" s="53">
+        <v>1350.7850000000001</v>
+      </c>
+      <c r="AA8" s="53">
+        <v>824.67399999999998</v>
+      </c>
+      <c r="AB8" s="52">
+        <v>5800.9589999999998</v>
+      </c>
+      <c r="AC8" s="55">
+        <v>6762.7650000000003</v>
+      </c>
+      <c r="AD8" s="54">
+        <v>5831.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="52">
         <v>44.509</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="53">
         <v>55.945</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="54">
         <v>52.3949</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="52">
         <v>1091.5350000000001</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="53">
         <v>957.65499999999997</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="53">
         <v>820.34500000000003</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="52">
         <v>5984.93</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="55">
         <v>7577.8649999999998</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="54">
         <v>5981.55</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="26">
+      <c r="T9" s="96"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="52">
+        <v>44.509</v>
+      </c>
+      <c r="W9" s="53">
+        <v>55.945</v>
+      </c>
+      <c r="X9" s="54">
+        <v>52.3949</v>
+      </c>
+      <c r="Y9" s="52">
+        <v>1091.5350000000001</v>
+      </c>
+      <c r="Z9" s="53">
+        <v>957.65499999999997</v>
+      </c>
+      <c r="AA9" s="53">
+        <v>820.34500000000003</v>
+      </c>
+      <c r="AB9" s="52">
+        <v>5984.93</v>
+      </c>
+      <c r="AC9" s="55">
+        <v>7577.8649999999998</v>
+      </c>
+      <c r="AD9" s="54">
+        <v>5981.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="56">
         <v>45.889899999999997</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="57">
         <v>46.05</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="58">
         <v>56.634999999999998</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="56">
         <v>878.92399999999998</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="57">
         <v>959.40499999999997</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="57">
         <v>773.49900000000002</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="52">
         <v>6309.4639999999999</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="59">
         <v>6523.7650000000003</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="58">
         <v>5895.7640000000001</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34">
-        <f>AVERAGE(H6:H10)</f>
+      <c r="T10" s="96"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="56">
+        <v>45.889899999999997</v>
+      </c>
+      <c r="W10" s="57">
+        <v>46.05</v>
+      </c>
+      <c r="X10" s="58">
+        <v>56.634999999999998</v>
+      </c>
+      <c r="Y10" s="56">
+        <v>878.92399999999998</v>
+      </c>
+      <c r="Z10" s="57">
+        <v>959.40499999999997</v>
+      </c>
+      <c r="AA10" s="57">
+        <v>773.49900000000002</v>
+      </c>
+      <c r="AB10" s="52">
+        <v>6309.4639999999999</v>
+      </c>
+      <c r="AC10" s="59">
+        <v>6523.7650000000003</v>
+      </c>
+      <c r="AD10" s="58">
+        <v>5895.7640000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="60">
+        <f t="shared" ref="H11:P11" si="0">AVERAGE(H6:H10)</f>
         <v>45.918540000000007</v>
       </c>
-      <c r="I11" s="35">
-        <f>AVERAGE(I6:I10)</f>
+      <c r="I11" s="61">
+        <f t="shared" si="0"/>
         <v>45.11</v>
       </c>
-      <c r="J11" s="36">
-        <f>AVERAGE(J6:J10)</f>
+      <c r="J11" s="62">
+        <f t="shared" si="0"/>
         <v>55.726977999999995</v>
       </c>
-      <c r="K11" s="37">
-        <f>AVERAGE(K6:K10)</f>
+      <c r="K11" s="63">
+        <f t="shared" si="0"/>
         <v>1023.6466</v>
       </c>
-      <c r="L11" s="35">
-        <f>AVERAGE(L6:L10)</f>
+      <c r="L11" s="61">
+        <f t="shared" si="0"/>
         <v>1080.1009999999999</v>
       </c>
-      <c r="M11" s="38">
-        <f>AVERAGE(M6:M10)</f>
+      <c r="M11" s="64">
+        <f t="shared" si="0"/>
         <v>813.30920000000003</v>
       </c>
-      <c r="N11" s="39">
-        <f>AVERAGE(N6:N10)</f>
+      <c r="N11" s="65">
+        <f t="shared" si="0"/>
         <v>6107.6376</v>
       </c>
-      <c r="O11" s="40">
-        <f>AVERAGE(O6:O10)</f>
+      <c r="O11" s="66">
+        <f t="shared" si="0"/>
         <v>6694.6580000000004</v>
       </c>
-      <c r="P11" s="36">
-        <f>AVERAGE(P6:P10)</f>
+      <c r="P11" s="62">
+        <f t="shared" si="0"/>
         <v>5989.4025999999994</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="78" t="s">
+      <c r="T11" s="96"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="60">
+        <f t="shared" ref="V11" si="1">AVERAGE(V6:V10)</f>
+        <v>45.918540000000007</v>
+      </c>
+      <c r="W11" s="61">
+        <f t="shared" ref="W11" si="2">AVERAGE(W6:W10)</f>
+        <v>45.11</v>
+      </c>
+      <c r="X11" s="62">
+        <f t="shared" ref="X11" si="3">AVERAGE(X6:X10)</f>
+        <v>55.726977999999995</v>
+      </c>
+      <c r="Y11" s="63">
+        <f t="shared" ref="Y11" si="4">AVERAGE(Y6:Y10)</f>
+        <v>1023.6466</v>
+      </c>
+      <c r="Z11" s="61">
+        <f t="shared" ref="Z11" si="5">AVERAGE(Z6:Z10)</f>
+        <v>1080.1009999999999</v>
+      </c>
+      <c r="AA11" s="64">
+        <f t="shared" ref="AA11" si="6">AVERAGE(AA6:AA10)</f>
+        <v>813.30920000000003</v>
+      </c>
+      <c r="AB11" s="65">
+        <f t="shared" ref="AB11" si="7">AVERAGE(AB6:AB10)</f>
+        <v>6107.6376</v>
+      </c>
+      <c r="AC11" s="66">
+        <f t="shared" ref="AC11" si="8">AVERAGE(AC6:AC10)</f>
+        <v>6694.6580000000004</v>
+      </c>
+      <c r="AD11" s="62">
+        <f t="shared" ref="AD11" si="9">AVERAGE(AD6:AD10)</f>
+        <v>5989.4025999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="67">
         <v>86.809899999999999</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="68">
         <v>152.86000000000001</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="69">
         <v>124.875</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="70">
         <v>3067.41</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="71">
         <v>5817.2730000000001</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="72">
         <v>1089.4739999999999</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="48">
         <v>29518.493999999999</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="73">
         <v>27646.528999999999</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="69">
         <v>6430.4650000000001</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="47">
+      <c r="T12" s="96"/>
+      <c r="U12" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="67">
+        <v>86.809899999999999</v>
+      </c>
+      <c r="W12" s="68">
+        <v>152.86000000000001</v>
+      </c>
+      <c r="X12" s="69">
+        <v>124.875</v>
+      </c>
+      <c r="Y12" s="70">
+        <v>3067.41</v>
+      </c>
+      <c r="Z12" s="71">
+        <v>5817.2730000000001</v>
+      </c>
+      <c r="AA12" s="72">
+        <v>1089.4739999999999</v>
+      </c>
+      <c r="AB12" s="48">
+        <v>29518.493999999999</v>
+      </c>
+      <c r="AC12" s="73">
+        <v>27646.528999999999</v>
+      </c>
+      <c r="AD12" s="69">
+        <v>6430.4650000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="74">
         <v>83.92</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="75">
         <v>102.249</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="76">
         <v>103.994</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="77">
         <v>3238.9789999999998</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="71">
         <v>5443.0060000000003</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="78">
         <v>1380.4149</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="52">
         <v>26149.528999999999</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="79">
         <v>27022.234</v>
       </c>
-      <c r="P13" s="49">
+      <c r="P13" s="76">
         <v>6990.3490000000002</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="47">
+      <c r="T13" s="96"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="74">
+        <v>83.92</v>
+      </c>
+      <c r="W13" s="75">
+        <v>102.249</v>
+      </c>
+      <c r="X13" s="76">
+        <v>103.994</v>
+      </c>
+      <c r="Y13" s="77">
+        <v>3238.9789999999998</v>
+      </c>
+      <c r="Z13" s="71">
+        <v>5443.0060000000003</v>
+      </c>
+      <c r="AA13" s="78">
+        <v>1380.4149</v>
+      </c>
+      <c r="AB13" s="52">
+        <v>26149.528999999999</v>
+      </c>
+      <c r="AC13" s="79">
+        <v>27022.234</v>
+      </c>
+      <c r="AD13" s="76">
+        <v>6990.3490000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="74">
         <v>80.889899999999997</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="75">
         <v>101.73</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="80">
         <v>114.2949</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="77">
         <v>2948.72</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="75">
         <v>4254.2640000000001</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="78">
         <v>1216.2239999999999</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="52">
         <v>26234.883999999998</v>
       </c>
-      <c r="O14" s="52">
+      <c r="O14" s="79">
         <v>31673.945</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="80">
         <v>6262.2550000000001</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="47">
+      <c r="T14" s="96"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="74">
+        <v>80.889899999999997</v>
+      </c>
+      <c r="W14" s="75">
+        <v>101.73</v>
+      </c>
+      <c r="X14" s="80">
+        <v>114.2949</v>
+      </c>
+      <c r="Y14" s="77">
+        <v>2948.72</v>
+      </c>
+      <c r="Z14" s="75">
+        <v>4254.2640000000001</v>
+      </c>
+      <c r="AA14" s="78">
+        <v>1216.2239999999999</v>
+      </c>
+      <c r="AB14" s="52">
+        <v>26234.883999999998</v>
+      </c>
+      <c r="AC14" s="79">
+        <v>31673.945</v>
+      </c>
+      <c r="AD14" s="80">
+        <v>6262.2550000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="74">
         <v>104.744</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="75">
         <v>110.699</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="80">
         <v>100.785</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="77">
         <v>3140.7049999999999</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="75">
         <v>4119.51</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="78">
         <v>1270.08</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="52">
         <v>26053.138999999999</v>
       </c>
-      <c r="O15" s="52">
+      <c r="O15" s="79">
         <v>32669.13</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="80">
         <v>6200.5839999999998</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="54">
+      <c r="T15" s="96"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="74">
+        <v>104.744</v>
+      </c>
+      <c r="W15" s="75">
+        <v>110.699</v>
+      </c>
+      <c r="X15" s="80">
+        <v>100.785</v>
+      </c>
+      <c r="Y15" s="77">
+        <v>3140.7049999999999</v>
+      </c>
+      <c r="Z15" s="75">
+        <v>4119.51</v>
+      </c>
+      <c r="AA15" s="78">
+        <v>1270.08</v>
+      </c>
+      <c r="AB15" s="52">
+        <v>26053.138999999999</v>
+      </c>
+      <c r="AC15" s="79">
+        <v>32669.13</v>
+      </c>
+      <c r="AD15" s="80">
+        <v>6200.5839999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="81">
         <v>121.035</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="82">
         <v>101.985</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="83">
         <v>98.019000000000005</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="84">
         <v>3469.5590000000002</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="82">
         <v>3390.6640000000002</v>
       </c>
-      <c r="M16" s="58">
+      <c r="M16" s="85">
         <v>1182.6289999999999</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="56">
         <v>26718.134999999998</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="86">
         <v>26532.074000000001</v>
       </c>
-      <c r="P16" s="56">
+      <c r="P16" s="83">
         <v>5713.7790000000005</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-    </row>
-    <row r="17" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="81">
+        <v>121.035</v>
+      </c>
+      <c r="W16" s="82">
+        <v>101.985</v>
+      </c>
+      <c r="X16" s="83">
+        <v>98.019000000000005</v>
+      </c>
+      <c r="Y16" s="84">
+        <v>3469.5590000000002</v>
+      </c>
+      <c r="Z16" s="82">
+        <v>3390.6640000000002</v>
+      </c>
+      <c r="AA16" s="85">
+        <v>1182.6289999999999</v>
+      </c>
+      <c r="AB16" s="56">
+        <v>26718.134999999998</v>
+      </c>
+      <c r="AC16" s="86">
+        <v>26532.074000000001</v>
+      </c>
+      <c r="AD16" s="83">
+        <v>5713.7790000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="87">
-        <f>AVERAGE(H12:H16)</f>
+        <f t="shared" ref="H17:P17" si="10">AVERAGE(H12:H16)</f>
         <v>95.479759999999985</v>
       </c>
       <c r="I17" s="88">
-        <f>AVERAGE(I12:I16)</f>
+        <f t="shared" si="10"/>
         <v>113.9046</v>
       </c>
       <c r="J17" s="89">
-        <f>AVERAGE(J12:J16)</f>
+        <f t="shared" si="10"/>
         <v>108.39358</v>
       </c>
-      <c r="K17" s="60">
-        <f>AVERAGE(K12:K16)</f>
+      <c r="K17" s="90">
+        <f t="shared" si="10"/>
         <v>3173.0745999999999</v>
       </c>
-      <c r="L17" s="90">
-        <f>AVERAGE(L12:L16)</f>
+      <c r="L17" s="91">
+        <f t="shared" si="10"/>
         <v>4604.9434000000001</v>
       </c>
-      <c r="M17" s="91">
-        <f>AVERAGE(M12:M16)</f>
+      <c r="M17" s="92">
+        <f t="shared" si="10"/>
         <v>1227.7643800000001</v>
       </c>
-      <c r="N17" s="39">
-        <f>AVERAGE(N12:N16)</f>
+      <c r="N17" s="65">
+        <f t="shared" si="10"/>
         <v>26934.836200000002</v>
       </c>
-      <c r="O17" s="90">
-        <f>AVERAGE(O12:O16)</f>
+      <c r="O17" s="91">
+        <f t="shared" si="10"/>
         <v>29108.782400000004</v>
       </c>
-      <c r="P17" s="61">
-        <f>AVERAGE(P12:P16)</f>
+      <c r="P17" s="93">
+        <f t="shared" si="10"/>
         <v>6319.4863999999998</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T17" s="102"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="87">
+        <f t="shared" ref="V17" si="11">AVERAGE(V12:V16)</f>
+        <v>95.479759999999985</v>
+      </c>
+      <c r="W17" s="88">
+        <f t="shared" ref="W17" si="12">AVERAGE(W12:W16)</f>
+        <v>113.9046</v>
+      </c>
+      <c r="X17" s="89">
+        <f t="shared" ref="X17" si="13">AVERAGE(X12:X16)</f>
+        <v>108.39358</v>
+      </c>
+      <c r="Y17" s="90">
+        <f t="shared" ref="Y17" si="14">AVERAGE(Y12:Y16)</f>
+        <v>3173.0745999999999</v>
+      </c>
+      <c r="Z17" s="91">
+        <f t="shared" ref="Z17" si="15">AVERAGE(Z12:Z16)</f>
+        <v>4604.9434000000001</v>
+      </c>
+      <c r="AA17" s="92">
+        <f t="shared" ref="AA17" si="16">AVERAGE(AA12:AA16)</f>
+        <v>1227.7643800000001</v>
+      </c>
+      <c r="AB17" s="65">
+        <f t="shared" ref="AB17" si="17">AVERAGE(AB12:AB16)</f>
+        <v>26934.836200000002</v>
+      </c>
+      <c r="AC17" s="91">
+        <f t="shared" ref="AC17" si="18">AVERAGE(AC12:AC16)</f>
+        <v>29108.782400000004</v>
+      </c>
+      <c r="AD17" s="93">
+        <f t="shared" ref="AD17" si="19">AVERAGE(AD12:AD16)</f>
+        <v>6319.4863999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="F18" s="5"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="F19" s="5"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -1832,9 +2313,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1851,12 +2332,12 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="9"/>
+      <c r="Q22" s="7"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1878,7 +2359,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1900,7 +2381,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1910,7 +2391,7 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1920,7 +2401,7 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1930,7 +2411,7 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1940,7 +2421,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -1948,7 +2429,7 @@
       <c r="E29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1956,7 +2437,7 @@
       <c r="E30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1964,7 +2445,7 @@
       <c r="E31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2317,12 +2798,14 @@
       <c r="S53" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
+  <mergeCells count="24">
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="T6:T17"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U17"/>
+    <mergeCell ref="T4:U5"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
@@ -2335,6 +2818,11 @@
     <mergeCell ref="E12:E17"/>
     <mergeCell ref="F12:F17"/>
     <mergeCell ref="G12:G17"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
